--- a/JdR/finition Baudouin.xlsx
+++ b/JdR/finition Baudouin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X181880\Documents\Kikou Lol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C50B64D3-7072-492F-9023-88BCDD46762A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DC1864F2-76A0-4963-99B2-640B3CF83DE3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{8B590D13-D494-4B51-BEE5-AC7A68789026}"/>
   </bookViews>
@@ -202,10 +202,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -237,9 +244,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,7 +565,7 @@
   <dimension ref="A3:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +595,7 @@
       </c>
       <c r="G3">
         <f>25-SUM(G5:G49)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
         <v>3</v>
@@ -604,14 +612,13 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
         <v>31</v>
       </c>
       <c r="G5">
-        <f>1*5</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
         <v>4</v>
@@ -633,15 +640,14 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="1">
-        <f>3*5</f>
-        <v>15</v>
+      <c r="G6">
+        <v>5</v>
       </c>
       <c r="J6" t="s">
         <v>5</v>
@@ -738,7 +744,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
@@ -769,10 +775,10 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="2">
         <v>3</v>
       </c>
       <c r="M12" t="s">
@@ -979,10 +985,10 @@
       </c>
     </row>
     <row r="34" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J34" t="s">
+      <c r="J34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1012,5 +1018,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>